--- a/data/2026-01-13/leaderboard.xlsx
+++ b/data/2026-01-13/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>rank</t>
   </si>
@@ -46,10 +46,13 @@
     <t>krishna.sabbu@gmail.com</t>
   </si>
   <si>
+    <t>sree.chbiotech@gmail.com</t>
+  </si>
+  <si>
+    <t>shine.sushma.thapa@gmail.com</t>
+  </si>
+  <si>
     <t>padmanaresh1986@gmail.com</t>
-  </si>
-  <si>
-    <t>shine.sushma.thapa@gmail.com</t>
   </si>
   <si>
     <t>cardio, strength_training</t>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,22 +456,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>18366</v>
+        <v>26009</v>
       </c>
       <c r="D2">
-        <v>7772</v>
+        <v>13367</v>
       </c>
       <c r="E2">
-        <v>13.37</v>
+        <v>18.97</v>
       </c>
       <c r="F2">
-        <v>627</v>
+        <v>827</v>
       </c>
       <c r="G2">
-        <v>2385</v>
+        <v>3220</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -494,7 +497,7 @@
         <v>2015</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,22 +508,19 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>253</v>
+        <v>34723</v>
       </c>
       <c r="D4">
-        <v>60.6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>225</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -531,19 +531,45 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>13835</v>
+        <v>27670</v>
       </c>
       <c r="D5">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="E5">
-        <v>7.85</v>
+        <v>15.7</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>253</v>
+      </c>
+      <c r="D6">
+        <v>60.6</v>
+      </c>
+      <c r="E6">
+        <v>0.99</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>225</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
